--- a/model_results_analysis.xlsx
+++ b/model_results_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Fabric-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB81180-F15F-4DD3-A5A7-9C663E22C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC55A95-E4E6-46C5-A1CB-B81AC6BA3BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>epoch</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>training time</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -4205,6 +4208,375 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Training time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final_analysis!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>training time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>final_analysis!$H$3:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>vgg16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vgg19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>resnet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>vgg19+svm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final_analysis!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D687-4F83-90FC-4BD56C0AB78D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="400442712"/>
+        <c:axId val="400442384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="400442712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400442384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400442384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400442712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4562,6 +4934,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8647,6 +9059,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8984,6 +9899,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CFE4D2-CA2E-4945-BB3A-244B2819C820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14295,10 +15246,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A8B068-3977-4AFA-93D7-E4FF9EEBD1AC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14310,9 +15261,15 @@
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
@@ -14320,7 +15277,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -14342,8 +15299,14 @@
       <c r="G2" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -14365,8 +15328,14 @@
       <c r="G3">
         <v>43.3</v>
       </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>43.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -14388,8 +15357,14 @@
       <c r="G4">
         <v>43</v>
       </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -14411,8 +15386,14 @@
       <c r="G5">
         <v>44.3</v>
       </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>44.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -14434,8 +15415,14 @@
       <c r="G6">
         <v>66</v>
       </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
@@ -14443,7 +15430,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -14463,7 +15450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -14483,7 +15470,7 @@
         <v>0.84033179283142001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -14502,8 +15489,14 @@
       <c r="F10" s="2">
         <v>0.80879282951354903</v>
       </c>
+      <c r="X10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -14522,8 +15515,26 @@
       <c r="F11" s="2">
         <v>0.65827989578247004</v>
       </c>
+      <c r="W11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -14542,14 +15553,202 @@
       <c r="F12" s="2">
         <v>0.84621787071228005</v>
       </c>
+      <c r="W12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.31466317176818798</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.89812648296356201</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0.87938082218170099</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0.92214471101760798</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0.89960843324661199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.31647098064422602</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.88934427499771096</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0.87266355752944902</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0.91047376394271795</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0.89044219255447299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1.1292300224304199</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0.60333722829818703</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0.45064252614974898</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0.771270871162414</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0.56412833929061801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.27522873878478998</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.90749412775039595</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0.889018714427948</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0.92782926559448198</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0.90731239318847601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="23:28" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="W17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.56136387586593595</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.83508771657943703</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0.82777774333953802</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.85423445701599099</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0.84033179283142001</v>
+      </c>
+    </row>
+    <row r="19" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.73192316293716397</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.80877190828323298</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0.79270833730697599</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.82674503326416005</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.80879282951354903</v>
+      </c>
+    </row>
+    <row r="20" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1.0560877323150599</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0.66491228342056197</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0.58020836114883401</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0.76960754394531194</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0.65827989578247004</v>
+      </c>
+    </row>
+    <row r="21" spans="23:28" x14ac:dyDescent="0.3">
+      <c r="W21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.70952165126800504</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0.84385967254638605</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0.839236080646514</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0.85375332832336404</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0.84621787071228005</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X16:AA16"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:F9">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14561,7 +15760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:F9">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14573,7 +15772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:F10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14585,7 +15784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:F10">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14597,7 +15796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14609,7 +15808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14621,7 +15820,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14633,7 +15832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14645,7 +15844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14655,7 +15854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14666,8 +15865,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:F8 A2:G6">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="A8:F8 A2:G6 H2">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
